--- a/tutorial_04_lp modeling/data/wyndor.xlsx
+++ b/tutorial_04_lp modeling/data/wyndor.xlsx
@@ -1,122 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3231" yWindow="189" windowWidth="14811" windowHeight="8031"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3231" yWindow="189" windowWidth="14811" windowHeight="8031" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>Wyndor Glass Co. Product-Mix Problem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hours used per batch produced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plant 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plant 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plant 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hours</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profit per batch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>available</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batches produced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total profit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,80 +247,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -663,142 +669,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.45"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="15.69140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.4609375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col width="15.69140625" customWidth="1" style="18" min="1" max="1"/>
+    <col width="13.4609375" customWidth="1" style="18" min="2" max="3"/>
+    <col width="5.84375" customWidth="1" style="18" min="4" max="5"/>
+    <col width="10.4609375" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
+    <col width="9" customWidth="1" style="18" min="7" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+    <row r="1">
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>Wyndor Glass Co. Product-Mix Problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.9" customHeight="1" thickBot="1">
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>Doors</t>
+        </is>
+      </c>
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.9" customHeight="1" thickBot="1">
+      <c r="A4" s="21" t="inlineStr">
+        <is>
+          <t>Profit per batch</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="n"/>
+      <c r="B5" s="21" t="n"/>
+      <c r="C5" s="21" t="n"/>
+      <c r="F5" s="21" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.9" customHeight="1" thickBot="1">
+      <c r="A6" s="21" t="n"/>
+      <c r="B6" s="21" t="inlineStr">
+        <is>
+          <t>Hours used per batch produced</t>
+        </is>
+      </c>
+      <c r="F6" s="21" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="inlineStr">
+        <is>
+          <t>Plant 1</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.9" thickBot="1">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D7" s="21" t="n"/>
+      <c r="E7" s="21" t="n"/>
+      <c r="F7" s="8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="inlineStr">
+        <is>
+          <t>Plant 2</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.9" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.9" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="21" t="s">
+      <c r="D8" s="21" t="n"/>
+      <c r="E8" s="21" t="n"/>
+      <c r="F8" s="11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="12.9" customHeight="1" thickBot="1">
+      <c r="A9" s="21" t="inlineStr">
+        <is>
+          <t>Plant 3</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="C9" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.9" thickBot="1">
-      <c r="A9" s="2" t="s">
+      <c r="D9" s="21" t="n"/>
+      <c r="E9" s="21" t="n"/>
+      <c r="F9" s="14" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="12.9" customHeight="1" thickBot="1">
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>Doors</t>
+        </is>
+      </c>
+      <c r="C11" s="21" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
+        <is>
+          <t>Total profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="13.3" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A12" s="21" t="inlineStr">
+        <is>
+          <t>Batches produced</t>
+        </is>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="12">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.9" thickBot="1">
-      <c r="B11" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.3" thickTop="1" thickBot="1">
-      <c r="A12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="18"/>
+      <c r="F12" s="17" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tutorial_04_lp modeling/data/wyndor.xlsx
+++ b/tutorial_04_lp modeling/data/wyndor.xlsx
@@ -3,72 +3,37 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3231" yWindow="189" windowWidth="14811" windowHeight="8031" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0"/>
-  </numFmts>
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <family val="3"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -76,237 +41,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000CC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0000CC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0000CC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0000CC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0000CC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0000CC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000CC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0000CC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0000CC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0000CC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000CC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0000CC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0000CC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000CC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0000CC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000CC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0000CC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000CC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0000CC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0000CC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0000CC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000CC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0000CC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0000CC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF00B050"/>
-      </left>
-      <right style="double">
-        <color rgb="FF00B050"/>
-      </right>
-      <top style="double">
-        <color rgb="FF00B050"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,10 +198,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,7 +232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,171 +412,147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.45"/>
-  <cols>
-    <col width="15.69140625" customWidth="1" style="18" min="1" max="1"/>
-    <col width="13.4609375" customWidth="1" style="18" min="2" max="3"/>
-    <col width="5.84375" customWidth="1" style="18" min="4" max="5"/>
-    <col width="10.4609375" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
-    <col width="9" customWidth="1" style="18" min="7" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Wyndor Glass Co. Product-Mix Problem</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.9" customHeight="1" thickBot="1">
-      <c r="B3" s="21" t="inlineStr">
+    <row r="3">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="C3" s="21" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Windows</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.9" customHeight="1" thickBot="1">
-      <c r="A4" s="21" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Profit per batch</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" t="n">
         <v>3000</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n"/>
-      <c r="B5" s="21" t="n"/>
-      <c r="C5" s="21" t="n"/>
-      <c r="F5" s="21" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Hours</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.9" customHeight="1" thickBot="1">
-      <c r="A6" s="21" t="n"/>
-      <c r="B6" s="21" t="inlineStr">
+    <row r="6">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hours used per batch produced</t>
         </is>
       </c>
-      <c r="F6" s="21" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Plant 1</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="21" t="n"/>
-      <c r="E7" s="21" t="n"/>
-      <c r="F7" s="8" t="n">
+      <c r="F7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Plant 2</t>
         </is>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
-      <c r="F8" s="11" t="n">
+      <c r="F8" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="12.9" customHeight="1" thickBot="1">
-      <c r="A9" s="21" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Plant 3</t>
         </is>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
-      <c r="F9" s="14" t="n">
+      <c r="F9" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="12.9" customHeight="1" thickBot="1">
-      <c r="B11" s="21" t="inlineStr">
+    <row r="11">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Doors</t>
         </is>
       </c>
-      <c r="C11" s="21" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Windows</t>
         </is>
       </c>
-      <c r="F11" s="21" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Total profit</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="13.3" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A12" s="21" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Batches produced</t>
         </is>
       </c>
-      <c r="B12" s="15" t="n">
+      <c r="B12" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" t="n">
         <v>36000</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="18" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tutorial_04_lp modeling/data/wyndor.xlsx
+++ b/tutorial_04_lp modeling/data/wyndor.xlsx
@@ -1,39 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3231" yWindow="189" windowWidth="14811" windowHeight="8031"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>Wyndor Glass Co. Product-Mix Problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hours used per batch produced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit per batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batches produced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0;\-\$#,##0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -41,85 +129,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000CC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0000CC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0000CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000CC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000CC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0000CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000CC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0000CC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000CC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000CC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000CC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000CC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000CC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000CC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000CC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000CC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000CC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000CC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0000CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0000CC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0000CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000CC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000CC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0000CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="double">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="double">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -166,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +452,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +487,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,152 +663,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.45"/>
+  <cols>
+    <col min="1" max="1" width="15.69140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.4609375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="5.84375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Wyndor Glass Co. Product-Mix Problem</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Doors</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Windows</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Profit per batch</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.9" thickBot="1">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.9" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
         <v>3000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>5000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hours used per batch produced</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Plant 1</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.9" thickBot="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Plant 2</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Plant 3</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:6" ht="12.9" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Doors</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Windows</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Total profit</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Batches produced</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="11" spans="1:6" ht="12.9" thickBot="1">
+      <c r="B11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>36000</v>
-      </c>
+      <c r="F11" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.3" thickTop="1" thickBot="1">
+      <c r="A12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="2">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tutorial_04_lp modeling/data/wyndor.xlsx
+++ b/tutorial_04_lp modeling/data/wyndor.xlsx
@@ -427,22 +427,8 @@
           <t>Wyndor Glass Co. Product-Mix Problem</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Doors</t>
@@ -453,9 +439,6 @@
           <t>Windows</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -469,16 +452,8 @@
       <c r="C4" t="n">
         <v>5000</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>Hours</t>
@@ -486,15 +461,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Hours used per batch produced</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>available</t>
@@ -513,8 +484,6 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>4</v>
       </c>
@@ -531,8 +500,6 @@
       <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>12</v>
       </c>
@@ -549,22 +516,11 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>Doors</t>
@@ -575,8 +531,6 @@
           <t>Windows</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>Total profit</t>
@@ -595,8 +549,6 @@
       <c r="C12" t="n">
         <v>6</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>36000</v>
       </c>

--- a/tutorial_04_lp modeling/data/wyndor.xlsx
+++ b/tutorial_04_lp modeling/data/wyndor.xlsx
@@ -427,8 +427,22 @@
           <t>Wyndor Glass Co. Product-Mix Problem</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Doors</t>
@@ -439,6 +453,9 @@
           <t>Windows</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -452,8 +469,16 @@
       <c r="C4" t="n">
         <v>5000</v>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>Hours</t>
@@ -461,11 +486,15 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Hours used per batch produced</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>available</t>
@@ -484,6 +513,8 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>4</v>
       </c>
@@ -500,6 +531,8 @@
       <c r="C8" t="n">
         <v>2</v>
       </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>12</v>
       </c>
@@ -516,11 +549,22 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>18</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
     <row r="11">
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>Doors</t>
@@ -531,6 +575,8 @@
           <t>Windows</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>Total profit</t>
@@ -549,6 +595,8 @@
       <c r="C12" t="n">
         <v>6</v>
       </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>36000</v>
       </c>
